--- a/data/hotels_by_city/Houston/Houston_shard_202.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_202.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55667-d107168-Reviews-Econo_Lodge-Conroe_Texas.html</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Econo-Lodge.h8825.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,312 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r484117066-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>55667</t>
+  </si>
+  <si>
+    <t>107168</t>
+  </si>
+  <si>
+    <t>484117066</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>Chapin</t>
+  </si>
+  <si>
+    <t>Very clean ,in our price range, friendly  staff, we will definitely be staying here again, great breakfast  way better than most places that offer free breakfast. Also in great location easy to come and go. Staff is also very helpful.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r467416621-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>467416621</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Had high hopes, higher disappointment</t>
+  </si>
+  <si>
+    <t>Was given a room, #116, on the first night I couldnt get to sleep because I smelled weed coming into my room from outside. 4 minutes someone came up to my door asking me if I wanted to buy any. I called the office and they did nothing. The next night was the same thing but this time I had an asthma attack from it all and people were outside of my room yelling at eachother! If they have drug issues here and refuse to do anything what do they think of their clients who arent doing that crap? I was really disrespected and sneered at. There should be a half star rating for this place. Its disgusting and so are the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Was given a room, #116, on the first night I couldnt get to sleep because I smelled weed coming into my room from outside. 4 minutes someone came up to my door asking me if I wanted to buy any. I called the office and they did nothing. The next night was the same thing but this time I had an asthma attack from it all and people were outside of my room yelling at eachother! If they have drug issues here and refuse to do anything what do they think of their clients who arent doing that crap? I was really disrespected and sneered at. There should be a half star rating for this place. Its disgusting and so are the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r408081850-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>408081850</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>In need of some work, but suited my needs</t>
+  </si>
+  <si>
+    <t>The buildings are old and ugly and in need of a paint job – one that isn’t some shade of mustard yellow.  My room was ok, not perfect but ok for the class of hotel.  The room had a microwave and refrigerator but I didn’t use either.  The counter area next to the sink had plenty of room for my belongings.  There was a plug in near the bed but not right next to the nightstand or on a lamp.  With a 6’ cord, I was able to charge my phone and put it on the nightstand.  The bed was comfortable but the pillows were too thin for my preference.  The A/C was cold enough for my needs.  The pool area looks usable and decent however I didn’t use the pool.  There are rooms that surround the pool so that might be desirable if you have kids that will swim.  When I checked in the FDC said the internet was down but they were working on it.  When I got back to my room that evening it was up and running.  The internet name I was using was named “guest”, if that is the Econo Lodge’s, I thought it was fast and I was happy with the speed.  The breakfast area was clean but there was only dry cereal, toast and a danish.  There was a waffle maker but no batter (not that I would have had one anyway).  I...The buildings are old and ugly and in need of a paint job – one that isn’t some shade of mustard yellow.  My room was ok, not perfect but ok for the class of hotel.  The room had a microwave and refrigerator but I didn’t use either.  The counter area next to the sink had plenty of room for my belongings.  There was a plug in near the bed but not right next to the nightstand or on a lamp.  With a 6’ cord, I was able to charge my phone and put it on the nightstand.  The bed was comfortable but the pillows were too thin for my preference.  The A/C was cold enough for my needs.  The pool area looks usable and decent however I didn’t use the pool.  There are rooms that surround the pool so that might be desirable if you have kids that will swim.  When I checked in the FDC said the internet was down but they were working on it.  When I got back to my room that evening it was up and running.  The internet name I was using was named “guest”, if that is the Econo Lodge’s, I thought it was fast and I was happy with the speed.  The breakfast area was clean but there was only dry cereal, toast and a danish.  There was a waffle maker but no batter (not that I would have had one anyway).  I attempted to eat a bowl of cereal but it was stale so I threw it away.  There is an on demand coffee dispenser that had regular coffee but no decaffeinated.  So for as little as I paid, I was ok with the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>The buildings are old and ugly and in need of a paint job – one that isn’t some shade of mustard yellow.  My room was ok, not perfect but ok for the class of hotel.  The room had a microwave and refrigerator but I didn’t use either.  The counter area next to the sink had plenty of room for my belongings.  There was a plug in near the bed but not right next to the nightstand or on a lamp.  With a 6’ cord, I was able to charge my phone and put it on the nightstand.  The bed was comfortable but the pillows were too thin for my preference.  The A/C was cold enough for my needs.  The pool area looks usable and decent however I didn’t use the pool.  There are rooms that surround the pool so that might be desirable if you have kids that will swim.  When I checked in the FDC said the internet was down but they were working on it.  When I got back to my room that evening it was up and running.  The internet name I was using was named “guest”, if that is the Econo Lodge’s, I thought it was fast and I was happy with the speed.  The breakfast area was clean but there was only dry cereal, toast and a danish.  There was a waffle maker but no batter (not that I would have had one anyway).  I...The buildings are old and ugly and in need of a paint job – one that isn’t some shade of mustard yellow.  My room was ok, not perfect but ok for the class of hotel.  The room had a microwave and refrigerator but I didn’t use either.  The counter area next to the sink had plenty of room for my belongings.  There was a plug in near the bed but not right next to the nightstand or on a lamp.  With a 6’ cord, I was able to charge my phone and put it on the nightstand.  The bed was comfortable but the pillows were too thin for my preference.  The A/C was cold enough for my needs.  The pool area looks usable and decent however I didn’t use the pool.  There are rooms that surround the pool so that might be desirable if you have kids that will swim.  When I checked in the FDC said the internet was down but they were working on it.  When I got back to my room that evening it was up and running.  The internet name I was using was named “guest”, if that is the Econo Lodge’s, I thought it was fast and I was happy with the speed.  The breakfast area was clean but there was only dry cereal, toast and a danish.  There was a waffle maker but no batter (not that I would have had one anyway).  I attempted to eat a bowl of cereal but it was stale so I threw it away.  There is an on demand coffee dispenser that had regular coffee but no decaffeinated.  So for as little as I paid, I was ok with the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r330974100-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>330974100</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Check your room first</t>
+  </si>
+  <si>
+    <t>I would say from the mixed reviews on here and my own personal experiences,  it almost depends on what room your in. I was in one facing chevron and for $79 i honestly expected better quality. The walls had holes behind switches that were larger than the switch cover, the ceiling appeared have been leaking and had dripped on the table leaving residue. Half of the lights in the room didnt work. The tv quality was poor. The phone would randomly ring and when answered wouldnt have anyone on it. When it was getting cold i tried to turn on the heater and it didnt come on. Honestly, if you can afford $100. Go to the hotel next to ihop. I will never use this hotel again and i am very surprised that choice hotels would allow such run down locations to exist.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I would say from the mixed reviews on here and my own personal experiences,  it almost depends on what room your in. I was in one facing chevron and for $79 i honestly expected better quality. The walls had holes behind switches that were larger than the switch cover, the ceiling appeared have been leaking and had dripped on the table leaving residue. Half of the lights in the room didnt work. The tv quality was poor. The phone would randomly ring and when answered wouldnt have anyone on it. When it was getting cold i tried to turn on the heater and it didnt come on. Honestly, if you can afford $100. Go to the hotel next to ihop. I will never use this hotel again and i am very surprised that choice hotels would allow such run down locations to exist.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r261172872-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>261172872</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Just Say No</t>
+  </si>
+  <si>
+    <t>When I pulled in I knew I made a mistake but  went into the lobby and it was very clean and nice so I decided to give it a chance. The rooms look nothing like the pictures. They are not outdated, they are downright nasty. And at one end of the parking lot a few swarthy looking gentleman were hanging out all night. Lots of I 45 noise as well. I wouldn't recommend it for families or single women.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r201667577-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>201667577</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Basic amenities</t>
+  </si>
+  <si>
+    <t>Stayed here for one night, staff friendly, rooms a bit scruffy but clean, however good value and location. A few local food places around but bought food from local walmart and dined in the room. A final note this hotel is very near to the freeway so if you are a light sleeper dont stay here.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r150898101-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>150898101</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>It's all in the service</t>
+  </si>
+  <si>
+    <t>i am a full time traveler ..staying at hotels with group business is my profession..at this property all is good with some staff while others let you know you are not trusted ..you can't ask for extra chair as they want a deposit and will tell you that it's because you may damage or steal it. We indicated that we could break or steal anything in room so why would we steal an extra chair or towel?This is a hotel that wants groups and your cash but beware of the mean ones at the front desk.The group person will say "you people only get limited things" You People Is what she called us!Amazing how they can take your money and disrespect us all at the same time...like previous reviews ...carpet..where your socks...they are making progress in areas but and the rate is good but the " you people" stuff has to go...will update after " my type people " check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>i am a full time traveler ..staying at hotels with group business is my profession..at this property all is good with some staff while others let you know you are not trusted ..you can't ask for extra chair as they want a deposit and will tell you that it's because you may damage or steal it. We indicated that we could break or steal anything in room so why would we steal an extra chair or towel?This is a hotel that wants groups and your cash but beware of the mean ones at the front desk.The group person will say "you people only get limited things" You People Is what she called us!Amazing how they can take your money and disrespect us all at the same time...like previous reviews ...carpet..where your socks...they are making progress in areas but and the rate is good but the " you people" stuff has to go...will update after " my type people " check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r147446617-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>147446617</t>
+  </si>
+  <si>
+    <t>12/14/2012</t>
+  </si>
+  <si>
+    <t>stay away.</t>
+  </si>
+  <si>
+    <t>reminder, I live in hotels. I stay in hotels 3 for 25 nights a week every week I am a Elite diamond member of choice rewards. So I know what I'm talking about. Rooms are half decent but the Comfort Inns and this area are much better condition and better person now. I try calling front desk for over an hour from hotel room phone and from cell phone no 1 ever answer the phone. I tried to get a late checkout they would not give me 1. Not even 30 minutes.if you just need for hours of sleep then yeah stay here. But if you're going to be longer watch TV and hang out a little bit go somewhere else. The staff here is horrible day sucks and not very customer friendlyMoreShow less</t>
+  </si>
+  <si>
+    <t>reminder, I live in hotels. I stay in hotels 3 for 25 nights a week every week I am a Elite diamond member of choice rewards. So I know what I'm talking about. Rooms are half decent but the Comfort Inns and this area are much better condition and better person now. I try calling front desk for over an hour from hotel room phone and from cell phone no 1 ever answer the phone. I tried to get a late checkout they would not give me 1. Not even 30 minutes.if you just need for hours of sleep then yeah stay here. But if you're going to be longer watch TV and hang out a little bit go somewhere else. The staff here is horrible day sucks and not very customer friendlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r139602066-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>139602066</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>pet and family friendly!!</t>
+  </si>
+  <si>
+    <t>My husband and I have had the pleasure of staying at the Ramada Inn, now Econolodge in Conroe TX for several weeks while waiting for our new place to be renovated.  This was a superb experience, with friendly family oriented staff, pet friendly atmosphere, and state of the art safety precautions.  I highly recommend them to anyone for a short or long term stay!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r76473140-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>76473140</t>
+  </si>
+  <si>
+    <t>08/23/2010</t>
+  </si>
+  <si>
+    <t>Don't Trust the "Ramada" Name for Quality!</t>
+  </si>
+  <si>
+    <t>I was traveling late into the night, very tired...lobby looked fine, decent price. I"ve generally had good experiences w. Ramadas before so I certainly wasn't ready for this room!  Smell of dog urine hit me in the face when I opened the door!  Huge dirty spots on all the carpet, furniture chewed, fleas hopping on my feet as I stood at the sink, toliet cracked and filthy, layers of grime around doorknobs.  I was just too tired to get behind the wheel again without sleep...so I stuck it out!  Grrr!</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r66775346-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>66775346</t>
+  </si>
+  <si>
+    <t>06/07/2010</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>I would like to know who was writing the good reviews from recent stays, because this place is a dump! I had my family with me while on a overnight business trip &amp; we should have gone with our gut feeling when we drove up. The pictures of this place make it look really good. I felt sorry for the girl at the front desk who had only been there a week! We got our room &amp; you know it's a bad sign when your dog imediatly pees on the floor! my girls got bit by ants outside the room &amp; the pool was filled with bees, trash &amp; bugs! Needless to say we did not stay. Go to the Baymont!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>I would like to know who was writing the good reviews from recent stays, because this place is a dump! I had my family with me while on a overnight business trip &amp; we should have gone with our gut feeling when we drove up. The pictures of this place make it look really good. I felt sorry for the girl at the front desk who had only been there a week! We got our room &amp; you know it's a bad sign when your dog imediatly pees on the floor! my girls got bit by ants outside the room &amp; the pool was filled with bees, trash &amp; bugs! Needless to say we did not stay. Go to the Baymont!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r56827307-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>56827307</t>
+  </si>
+  <si>
+    <t>02/22/2010</t>
+  </si>
+  <si>
+    <t>You know its bad when there is hair in the bed and it is not yours.</t>
+  </si>
+  <si>
+    <t>Do not stay here. Spend  the extra $25 to find a decent place. The sheets had hairs in them. I called the front desk and at 11:30 they told me it was too late to change my sheets. My buddy insisted on putting her shoes right next to the bed so she did not have to walk on the floor. Yikes.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r8220387-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>8220387</t>
+  </si>
+  <si>
+    <t>07/22/2007</t>
+  </si>
+  <si>
+    <t>What a Suprise!</t>
+  </si>
+  <si>
+    <t>I couldn't believe I had been booked for this hotel. They charge and make it look like a nice hotel. It is a cheap rundown place.</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r8207047-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>8207047</t>
+  </si>
+  <si>
+    <t>07/19/2007</t>
+  </si>
+  <si>
+    <t>Worst hotel ever!</t>
+  </si>
+  <si>
+    <t>Property is very old.  It has the smell of musty feet.  The room doors will not open when it rains.  They ran out of towels and we had to wait 6 hours until they did the wash.  I have stayed in "motels" that had better service.  There were tissues stuffed all around the adjoining room door - made me wonder what was in there!?!?</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r8090763-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>8090763</t>
+  </si>
+  <si>
+    <t>07/09/2007</t>
+  </si>
+  <si>
+    <t>Bad News</t>
+  </si>
+  <si>
+    <t>Not Nice at all the photos are 30+ years old. Very Unsafe the doors do not lock good and there are holes in rotten boards you can step in. They list all of these amenities on their website and they do not exist.</t>
+  </si>
+  <si>
+    <t>May 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +844,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +876,1030 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_202.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_202.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r613283015-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>55667</t>
+  </si>
+  <si>
+    <t>107168</t>
+  </si>
+  <si>
+    <t>613283015</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Trash Hotel</t>
+  </si>
+  <si>
+    <t>This place is a total dump. Mold, torn curtains, the lobby torn up. We pretty much knew when we walked around the pool that we were no staying. Booked the room through Expedia. I went into the lobby and flat asked them if the rooms were as bad as the outside. The little girl was not friendly at all. I asked for a refund and was told no. I called Expedia and sent them pictures of the property and did get a full refund. The pictures online were probably taking no back in the early 70s. Run as fast as you can!</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r598127039-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>598127039</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Excellent Personnel</t>
+  </si>
+  <si>
+    <t>It really needs a makeover. Taped up wires, phone didn't work, half the light didn't work, The bed was great and personnel were more then helpful. Might stay again, because of the price. Got it thru Expedia and it was less than 50 bucks, so can't complain too much,</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r597781683-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>597781683</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Stop stop don't go there how it look on the internet .. it don't look like that when u get here it's nasty.. they don't clean</t>
+  </si>
+  <si>
+    <t>They need to close this motel down its not a hotel.. plz drive by n look it's not wat u think it's a old motel they remodeled the office they rooms r nasty somebody need to call Business Bureau they need to be closed like yesterday I thought I was getting a nice room hell no don't go I mean that I hope somebody need to call to shut it down all the way down plz don't go n they will not give u ur money back I'll be back with pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r484117066-Econo_Lodge-Conroe_Texas.html</t>
   </si>
   <si>
-    <t>55667</t>
-  </si>
-  <si>
-    <t>107168</t>
-  </si>
-  <si>
     <t>484117066</t>
   </si>
   <si>
@@ -222,6 +282,42 @@
     <t>The buildings are old and ugly and in need of a paint job – one that isn’t some shade of mustard yellow.  My room was ok, not perfect but ok for the class of hotel.  The room had a microwave and refrigerator but I didn’t use either.  The counter area next to the sink had plenty of room for my belongings.  There was a plug in near the bed but not right next to the nightstand or on a lamp.  With a 6’ cord, I was able to charge my phone and put it on the nightstand.  The bed was comfortable but the pillows were too thin for my preference.  The A/C was cold enough for my needs.  The pool area looks usable and decent however I didn’t use the pool.  There are rooms that surround the pool so that might be desirable if you have kids that will swim.  When I checked in the FDC said the internet was down but they were working on it.  When I got back to my room that evening it was up and running.  The internet name I was using was named “guest”, if that is the Econo Lodge’s, I thought it was fast and I was happy with the speed.  The breakfast area was clean but there was only dry cereal, toast and a danish.  There was a waffle maker but no batter (not that I would have had one anyway).  I...The buildings are old and ugly and in need of a paint job – one that isn’t some shade of mustard yellow.  My room was ok, not perfect but ok for the class of hotel.  The room had a microwave and refrigerator but I didn’t use either.  The counter area next to the sink had plenty of room for my belongings.  There was a plug in near the bed but not right next to the nightstand or on a lamp.  With a 6’ cord, I was able to charge my phone and put it on the nightstand.  The bed was comfortable but the pillows were too thin for my preference.  The A/C was cold enough for my needs.  The pool area looks usable and decent however I didn’t use the pool.  There are rooms that surround the pool so that might be desirable if you have kids that will swim.  When I checked in the FDC said the internet was down but they were working on it.  When I got back to my room that evening it was up and running.  The internet name I was using was named “guest”, if that is the Econo Lodge’s, I thought it was fast and I was happy with the speed.  The breakfast area was clean but there was only dry cereal, toast and a danish.  There was a waffle maker but no batter (not that I would have had one anyway).  I attempted to eat a bowl of cereal but it was stale so I threw it away.  There is an on demand coffee dispenser that had regular coffee but no decaffeinated.  So for as little as I paid, I was ok with the stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r379205179-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>379205179</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>better than i thought</t>
+  </si>
+  <si>
+    <t>stayed here due to storms, I didn't expect much due to it's former reputation. was surprised to find it has been cleaned up, room was clean bed was average. shower was good for pro basketball players with the adjustable shower head near the ceiling and hard to reach, the water handle came off while adjusting the temp. the curtain liner was ripped and a hole in the wall by the tub. however it looks as if they are trying to improve, will check back in at the next storm.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r365278858-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>365278858</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Old, but clean and convenient</t>
+  </si>
+  <si>
+    <t>We booked this hotel with points while visiting family in town for a birthday party.  It is not elegant, but it suited our purposes.  It was clean, convenient, and very reasonable points.  The breakfast included egg patties, gravy, cereal, pastries, waffles, coffee, and apple juice.  The orange juice did not work.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r330974100-Econo_Lodge-Conroe_Texas.html</t>
   </si>
   <si>
@@ -279,7 +375,45 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r179721697-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>179721697</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>Dirty Syringes found in our room</t>
+  </si>
+  <si>
+    <t>We check in and come to find my daughter finds a dirty syringe covered in lubricant my boyfriend and I were outside when this happened my daughter comes out side and shows us what she has I go ahead and soap here all down to hopefully mk sure nothing gets in her system. Call hotel and they come down the general manager comes down and tells me this happens all the time really I guess your hotel should have bio hazard signs up for the customers. So talk to the owner after a period of time he has me go trough his insurance company to try to make this as simple as possible for everyone well guess what they tell me the hotel is not liable or negligent for what happened to my daughter that came from the insurance company . We have had her tested nothing came up yet which was expected to show she had nothing to begin with 
+have to have her tested at 3mths and 6mths 1yr and 2yr. We also found 7 more syringes under our mattress u could tell our room was not biohazard free. please put up signs next time so we can be aware of what is going on. Everyone pray for my daughter and our family that nothing happens to her. Please be advised when going into a hotel room bring your FBI kit with you to check over the room...We check in and come to find my daughter finds a dirty syringe covered in lubricant my boyfriend and I were outside when this happened my daughter comes out side and shows us what she has I go ahead and soap here all down to hopefully mk sure nothing gets in her system. Call hotel and they come down the general manager comes down and tells me this happens all the time really I guess your hotel should have bio hazard signs up for the customers. So talk to the owner after a period of time he has me go trough his insurance company to try to make this as simple as possible for everyone well guess what they tell me the hotel is not liable or negligent for what happened to my daughter that came from the insurance company . We have had her tested nothing came up yet which was expected to show she had nothing to begin with have to have her tested at 3mths and 6mths 1yr and 2yr. We also found 7 more syringes under our mattress u could tell our room was not biohazard free. please put up signs next time so we can be aware of what is going on. Everyone pray for my daughter and our family that nothing happens to her. Please be advised when going into a hotel room bring your FBI kit with you to check over the room bf u stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>We check in and come to find my daughter finds a dirty syringe covered in lubricant my boyfriend and I were outside when this happened my daughter comes out side and shows us what she has I go ahead and soap here all down to hopefully mk sure nothing gets in her system. Call hotel and they come down the general manager comes down and tells me this happens all the time really I guess your hotel should have bio hazard signs up for the customers. So talk to the owner after a period of time he has me go trough his insurance company to try to make this as simple as possible for everyone well guess what they tell me the hotel is not liable or negligent for what happened to my daughter that came from the insurance company . We have had her tested nothing came up yet which was expected to show she had nothing to begin with 
+have to have her tested at 3mths and 6mths 1yr and 2yr. We also found 7 more syringes under our mattress u could tell our room was not biohazard free. please put up signs next time so we can be aware of what is going on. Everyone pray for my daughter and our family that nothing happens to her. Please be advised when going into a hotel room bring your FBI kit with you to check over the room...We check in and come to find my daughter finds a dirty syringe covered in lubricant my boyfriend and I were outside when this happened my daughter comes out side and shows us what she has I go ahead and soap here all down to hopefully mk sure nothing gets in her system. Call hotel and they come down the general manager comes down and tells me this happens all the time really I guess your hotel should have bio hazard signs up for the customers. So talk to the owner after a period of time he has me go trough his insurance company to try to make this as simple as possible for everyone well guess what they tell me the hotel is not liable or negligent for what happened to my daughter that came from the insurance company . We have had her tested nothing came up yet which was expected to show she had nothing to begin with have to have her tested at 3mths and 6mths 1yr and 2yr. We also found 7 more syringes under our mattress u could tell our room was not biohazard free. please put up signs next time so we can be aware of what is going on. Everyone pray for my daughter and our family that nothing happens to her. Please be advised when going into a hotel room bring your FBI kit with you to check over the room bf u stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r161275286-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>161275286</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>Not as pictured.....pretty ghetto.</t>
+  </si>
+  <si>
+    <t>We booked this hotel for $59....too much IMO.  While the lobby was updated, the rooms were not.  The bathroom door was all beat up...it felt pretty gross.  Bed linens were pretty outdated.  We had limited options as we went to a concert during a busy weekend in the Woodlands and didn't book ahead of time.  If you need a place to stay, it'll work.  But the outside of building and interior is pretty dated. Bleck.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r150898101-Econo_Lodge-Conroe_Texas.html</t>
@@ -300,9 +434,6 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>i am a full time traveler ..staying at hotels with group business is my profession..at this property all is good with some staff while others let you know you are not trusted ..you can't ask for extra chair as they want a deposit and will tell you that it's because you may damage or steal it. We indicated that we could break or steal anything in room so why would we steal an extra chair or towel?This is a hotel that wants groups and your cash but beware of the mean ones at the front desk.The group person will say "you people only get limited things" You People Is what she called us!Amazing how they can take your money and disrespect us all at the same time...like previous reviews ...carpet..where your socks...they are making progress in areas but and the rate is good but the " you people" stuff has to go...will update after " my type people " check out.More</t>
   </si>
   <si>
@@ -342,6 +473,45 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r132963093-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>132963093</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Dirty and Rundown</t>
+  </si>
+  <si>
+    <t>My Husband and I made the mistake of booking a room here for 3 nights :( Room is reasonably clean. Arrived and room was extremely hot and the A/C didn't seem to be cooling it down and we have the A/C set at 60, they gave us a fan to help cool it down and it works OK.Pictures were obviously taken when the Ramada was first opened as the paint is peeling and they don't keep it very clean.Public bathroom near the breakfast room had giant dead bugs on the floor and the Continental breakfast was day old pastries and waffles.Phone in our room doesn't work and if you don't have transport the only restaurant in walking distance is a Chinese restaurant. All in all I would never EVER stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>My Husband and I made the mistake of booking a room here for 3 nights :( Room is reasonably clean. Arrived and room was extremely hot and the A/C didn't seem to be cooling it down and we have the A/C set at 60, they gave us a fan to help cool it down and it works OK.Pictures were obviously taken when the Ramada was first opened as the paint is peeling and they don't keep it very clean.Public bathroom near the breakfast room had giant dead bugs on the floor and the Continental breakfast was day old pastries and waffles.Phone in our room doesn't work and if you don't have transport the only restaurant in walking distance is a Chinese restaurant. All in all I would never EVER stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r118653952-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>118653952</t>
+  </si>
+  <si>
+    <t>09/27/2011</t>
+  </si>
+  <si>
+    <t>Had a wonderful Stay</t>
+  </si>
+  <si>
+    <t>I have stayed here a few times during my trip to or through Conroe, Texas.  The service has always been excellent, and the room has always been nice.  Good rooms, good staff, Great Value!!!</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r76473140-Econo_Lodge-Conroe_Texas.html</t>
   </si>
   <si>
@@ -397,6 +567,42 @@
   </si>
   <si>
     <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r55406757-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>55406757</t>
+  </si>
+  <si>
+    <t>02/07/2010</t>
+  </si>
+  <si>
+    <t>Recently Remodelled!</t>
+  </si>
+  <si>
+    <t>Having stopped by a Motel6 in Conroe and demanding a refund because the place was in horrible condition and I didn't feel safe having my mother there, I decided to check out some reviews on a few nearby motels. I normally stay in hotels, but we just needed a good nights rest and were trying to be frugal on a long roadtrip.Anyway, there were mixed reviews on the Ramada but we decided to check it out anyway.The rooms have been rennovated in the last year and the girls at the front desk were exceptionally helpful. I believe it's a family owned franchise location and it shows by the friendliness and hospitality of the staff.Anyone travelling through Conroe, TX who needs a room for the night should stop in and see for yourself. Those negative reviews were obviously before the new owners purchased and rennovated.MoreShow less</t>
+  </si>
+  <si>
+    <t>Having stopped by a Motel6 in Conroe and demanding a refund because the place was in horrible condition and I didn't feel safe having my mother there, I decided to check out some reviews on a few nearby motels. I normally stay in hotels, but we just needed a good nights rest and were trying to be frugal on a long roadtrip.Anyway, there were mixed reviews on the Ramada but we decided to check it out anyway.The rooms have been rennovated in the last year and the girls at the front desk were exceptionally helpful. I believe it's a family owned franchise location and it shows by the friendliness and hospitality of the staff.Anyone travelling through Conroe, TX who needs a room for the night should stop in and see for yourself. Those negative reviews were obviously before the new owners purchased and rennovated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r17137775-Econo_Lodge-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>17137775</t>
+  </si>
+  <si>
+    <t>06/22/2008</t>
+  </si>
+  <si>
+    <t>Don't Stay Here</t>
+  </si>
+  <si>
+    <t>The hotel has been undergoing construction for a while.  The workers stay at the hotel and bbq in the parking lot in the back.  It is loud.  The rooms are disgusting.  They smell of smoke and must.  The carpet it dirty and worn out.  It's better to drive 10 minutes north and stay near Willis or 10 minutes south and stay in the Woodlands.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d107168-r8220387-Econo_Lodge-Conroe_Texas.html</t>
@@ -985,7 +1191,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -994,11 +1200,15 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1042,7 +1252,7 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
@@ -1051,14 +1261,16 @@
         <v>59</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1066,7 +1278,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1082,7 +1294,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1091,45 +1303,39 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1145,7 +1351,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1154,43 +1360,39 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1206,7 +1408,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1215,33 +1417,31 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>79</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
-      </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -1253,7 +1453,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1296,21 +1496,27 @@
         <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1347,29 +1553,23 @@
         <v>92</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
         <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1377,7 +1577,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1393,7 +1593,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1402,37 +1602,37 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>98</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
       </c>
-      <c r="L9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1440,7 +1640,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1456,7 +1656,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1465,41 +1665,35 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
         <v>103</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>104</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
         <v>105</v>
       </c>
-      <c r="L10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1523,7 +1717,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1532,38 +1726,34 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
         <v>109</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>110</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>111</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>112</v>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>113</v>
-      </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>1</v>
@@ -1574,7 +1764,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1590,7 +1780,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1599,25 +1789,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
         <v>115</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>116</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>117</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>118</v>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>119</v>
-      </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1631,7 +1821,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1647,7 +1837,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1656,42 +1846,38 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>123</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>124</v>
       </c>
-      <c r="L13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>126</v>
-      </c>
       <c r="O13" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
       </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
@@ -1714,7 +1900,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1723,28 +1909,28 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
         <v>128</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>129</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>130</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
         <v>131</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>132</v>
       </c>
       <c r="O14" t="s">
         <v>52</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
@@ -1753,11 +1939,11 @@
         <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1765,7 +1951,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -1781,7 +1967,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1790,31 +1976,31 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
         <v>134</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>135</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>136</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
         <v>137</v>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>138</v>
-      </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>3</v>
@@ -1824,7 +2010,7 @@
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1832,7 +2018,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -1869,25 +2055,21 @@
         <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O16" t="s">
-        <v>52</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
         <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -1899,7 +2081,730 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>212</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
